--- a/data/trans_orig/P34C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34C2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CC8B4E6-EF8B-4A58-B46C-13109AED8909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F74FF1FE-546E-41E7-A742-856990B0BDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3352E7CA-A65D-4133-B903-171320E5A1D7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3B452143-AB84-4B62-890D-1FA278110289}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="186">
   <si>
     <t>Población según el número de veces al día que realizan alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 41,39%)</t>
   </si>
@@ -74,520 +74,523 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>13,58%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>73,37%</t>
   </si>
   <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
   </si>
   <si>
     <t>71,6%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
   </si>
   <si>
     <t>72,49%</t>
   </si>
   <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1002,7 +1005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BD96B1-D5D4-438C-AC88-FA291F5279A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0578225D-5F57-4122-9E2E-5A91D8FD9C8A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1745,10 +1748,10 @@
         <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -1757,13 +1760,13 @@
         <v>16713</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -1772,13 +1775,13 @@
         <v>32563</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1793,13 +1796,13 @@
         <v>19883</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -1808,13 +1811,13 @@
         <v>12397</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -1823,13 +1826,13 @@
         <v>32280</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1844,13 +1847,13 @@
         <v>15461</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -1859,13 +1862,13 @@
         <v>30245</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -1874,13 +1877,13 @@
         <v>45705</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,13 +1898,13 @@
         <v>40290</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -1910,13 +1913,13 @@
         <v>53831</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>116</v>
@@ -1925,13 +1928,13 @@
         <v>94120</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1949,13 @@
         <v>275340</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>423</v>
@@ -1961,13 +1964,13 @@
         <v>306346</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>688</v>
@@ -1976,13 +1979,13 @@
         <v>581686</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,13 +2053,13 @@
         <v>46781</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H22" s="7">
         <v>78</v>
@@ -2065,13 +2068,13 @@
         <v>40141</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>136</v>
@@ -2080,13 +2083,13 @@
         <v>86921</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2104,13 @@
         <v>59458</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H23" s="7">
         <v>115</v>
@@ -2116,13 +2119,13 @@
         <v>54632</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>187</v>
@@ -2131,13 +2134,13 @@
         <v>114090</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,13 +2155,13 @@
         <v>89610</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>151</v>
@@ -2167,13 +2170,13 @@
         <v>88184</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>237</v>
@@ -2182,13 +2185,13 @@
         <v>177795</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,13 +2206,13 @@
         <v>203814</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H25" s="7">
         <v>333</v>
@@ -2233,13 +2236,13 @@
         <v>441179</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,13 +2257,13 @@
         <v>1100999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>1489</v>
@@ -2269,13 +2272,13 @@
         <v>1059808</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>2528</v>
@@ -2284,13 +2287,13 @@
         <v>2160807</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,7 +2349,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34C2_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F74FF1FE-546E-41E7-A742-856990B0BDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E7E201A-1581-4CDE-B411-3050A4C9FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3B452143-AB84-4B62-890D-1FA278110289}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14F2127D-5CAC-4B95-809B-3C4AFAD26A61}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1005,7 +1005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0578225D-5F57-4122-9E2E-5A91D8FD9C8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7560BF84-FB34-4837-9298-A3216BF1EAF7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P34C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34C2_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E7E201A-1581-4CDE-B411-3050A4C9FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E62242FE-7CAD-4110-AE4D-9BD4693A2975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14F2127D-5CAC-4B95-809B-3C4AFAD26A61}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D4CAF3AE-D918-4F44-A4CC-7C5CD7915400}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="186">
-  <si>
-    <t>Población según el número de veces al día que realizan alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 41,39%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="210">
+  <si>
+    <t>Población según el número de veces al día que realizan alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 99,61%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,529 +68,601 @@
     <t>Primarios</t>
   </si>
   <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1005,8 +1077,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7560BF84-FB34-4837-9298-A3216BF1EAF7}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBB7A40-FA21-412B-8825-37D9F8F6F677}">
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1195,13 +1267,13 @@
         <v>1956</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1210,13 +1282,13 @@
         <v>3000</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1231,13 +1303,13 @@
         <v>764</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -1246,13 +1318,13 @@
         <v>5811</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -1261,13 +1333,13 @@
         <v>6575</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1282,13 +1354,13 @@
         <v>30714</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H7" s="7">
         <v>44</v>
@@ -1297,13 +1369,13 @@
         <v>28513</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -1312,13 +1384,13 @@
         <v>59227</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1333,13 +1405,13 @@
         <v>107243</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H8" s="7">
         <v>222</v>
@@ -1348,13 +1420,13 @@
         <v>139717</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>357</v>
@@ -1363,1005 +1435,1209 @@
         <v>246960</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
+      <c r="B9" s="5">
+        <v>0</v>
       </c>
       <c r="C9" s="7">
-        <v>170</v>
+        <v>517</v>
       </c>
       <c r="D9" s="7">
-        <v>141055</v>
+        <v>397495</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>286</v>
+        <v>1134</v>
       </c>
       <c r="I9" s="7">
-        <v>178644</v>
+        <v>651107</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>456</v>
+        <v>1651</v>
       </c>
       <c r="N9" s="7">
-        <v>319699</v>
+        <v>1048602</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>687</v>
+      </c>
+      <c r="D10" s="7">
+        <v>538550</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1420</v>
+      </c>
+      <c r="I10" s="7">
+        <v>829751</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2107</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1368301</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C11" s="7">
         <v>32</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="7">
         <v>29641</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="E11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="7">
         <v>39</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I11" s="7">
         <v>20781</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="7">
+      <c r="J11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="7">
         <v>71</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N11" s="7">
         <v>50422</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="C11" s="7">
-        <v>48</v>
-      </c>
-      <c r="D11" s="7">
-        <v>38531</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="7">
-        <v>83</v>
-      </c>
-      <c r="I11" s="7">
-        <v>40279</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="O11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="M11" s="7">
-        <v>131</v>
-      </c>
-      <c r="N11" s="7">
-        <v>78810</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="7">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D12" s="7">
-        <v>73386</v>
+        <v>38531</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="7">
+        <v>83</v>
+      </c>
+      <c r="I12" s="7">
+        <v>40279</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="7">
-        <v>99</v>
-      </c>
-      <c r="I12" s="7">
-        <v>52128</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>131</v>
+      </c>
+      <c r="N12" s="7">
+        <v>78810</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="7">
-        <v>168</v>
-      </c>
-      <c r="N12" s="7">
-        <v>125514</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="D13" s="7">
-        <v>132811</v>
+        <v>73386</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="7">
+        <v>99</v>
+      </c>
+      <c r="I13" s="7">
+        <v>52128</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>168</v>
+      </c>
+      <c r="N13" s="7">
+        <v>125514</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="7">
-        <v>216</v>
-      </c>
-      <c r="I13" s="7">
-        <v>155021</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M13" s="7">
-        <v>334</v>
-      </c>
-      <c r="N13" s="7">
-        <v>287831</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="7">
-        <v>639</v>
+        <v>118</v>
       </c>
       <c r="D14" s="7">
-        <v>718415</v>
+        <v>132811</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="7">
+        <v>216</v>
+      </c>
+      <c r="I14" s="7">
+        <v>155021</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="7">
+        <v>334</v>
+      </c>
+      <c r="N14" s="7">
+        <v>287831</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="H14" s="7">
-        <v>844</v>
-      </c>
-      <c r="I14" s="7">
-        <v>613746</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1483</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1332161</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
+      <c r="B15" s="5">
+        <v>1</v>
       </c>
       <c r="C15" s="7">
-        <v>906</v>
+        <v>639</v>
       </c>
       <c r="D15" s="7">
-        <v>992783</v>
+        <v>718416</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
-        <v>1281</v>
+        <v>844</v>
       </c>
       <c r="I15" s="7">
-        <v>881955</v>
+        <v>613745</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
-        <v>2187</v>
+        <v>1483</v>
       </c>
       <c r="N15" s="7">
-        <v>1874738</v>
+        <v>1332161</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>1078</v>
       </c>
       <c r="D16" s="7">
-        <v>15850</v>
+        <v>1160809</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
-        <v>35</v>
+        <v>1632</v>
       </c>
       <c r="I16" s="7">
-        <v>16713</v>
+        <v>1359684</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
-        <v>59</v>
+        <v>2710</v>
       </c>
       <c r="N16" s="7">
-        <v>32563</v>
+        <v>2520493</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="5">
-        <v>4</v>
+      <c r="B17" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>1984</v>
       </c>
       <c r="D17" s="7">
-        <v>19883</v>
+        <v>2153592</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
-        <v>27</v>
+        <v>2913</v>
       </c>
       <c r="I17" s="7">
-        <v>12397</v>
+        <v>2241639</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="7">
+        <v>4897</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4395231</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="B18" s="5">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7">
+        <v>24</v>
+      </c>
+      <c r="D18" s="7">
+        <v>15850</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M17" s="7">
-        <v>50</v>
-      </c>
-      <c r="N17" s="7">
-        <v>32280</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="F18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="H18" s="7">
+        <v>35</v>
+      </c>
+      <c r="I18" s="7">
+        <v>16713</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>16</v>
-      </c>
-      <c r="D18" s="7">
-        <v>15461</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>59</v>
+      </c>
+      <c r="N18" s="7">
+        <v>32563</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="H18" s="7">
-        <v>41</v>
-      </c>
-      <c r="I18" s="7">
-        <v>30245</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M18" s="7">
-        <v>57</v>
-      </c>
-      <c r="N18" s="7">
-        <v>45705</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" s="7">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D19" s="7">
-        <v>40290</v>
+        <v>19883</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="7">
+        <v>27</v>
+      </c>
+      <c r="I19" s="7">
+        <v>12397</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M19" s="7">
+        <v>50</v>
+      </c>
+      <c r="N19" s="7">
+        <v>32280</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" s="7">
-        <v>73</v>
-      </c>
-      <c r="I19" s="7">
-        <v>53831</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M19" s="7">
-        <v>116</v>
-      </c>
-      <c r="N19" s="7">
-        <v>94120</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="D20" s="7">
-        <v>275340</v>
+        <v>15461</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="7">
+        <v>41</v>
+      </c>
+      <c r="I20" s="7">
+        <v>30245</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M20" s="7">
+        <v>57</v>
+      </c>
+      <c r="N20" s="7">
+        <v>45705</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" s="7">
-        <v>423</v>
-      </c>
-      <c r="I20" s="7">
-        <v>306346</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M20" s="7">
-        <v>688</v>
-      </c>
-      <c r="N20" s="7">
-        <v>581686</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
+      <c r="B21" s="5">
+        <v>2</v>
       </c>
       <c r="C21" s="7">
-        <v>371</v>
+        <v>43</v>
       </c>
       <c r="D21" s="7">
-        <v>366824</v>
+        <v>40290</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="H21" s="7">
-        <v>599</v>
+        <v>73</v>
       </c>
       <c r="I21" s="7">
-        <v>419531</v>
+        <v>53831</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="M21" s="7">
-        <v>970</v>
+        <v>116</v>
       </c>
       <c r="N21" s="7">
-        <v>786355</v>
+        <v>94120</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C22" s="7">
-        <v>58</v>
+        <v>265</v>
       </c>
       <c r="D22" s="7">
-        <v>46781</v>
+        <v>275341</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
-        <v>78</v>
+        <v>423</v>
       </c>
       <c r="I22" s="7">
-        <v>40141</v>
+        <v>306346</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
-        <v>136</v>
+        <v>688</v>
       </c>
       <c r="N22" s="7">
-        <v>86921</v>
+        <v>581686</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23" s="7">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="D23" s="7">
-        <v>59458</v>
+        <v>305198</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
-        <v>115</v>
+        <v>403</v>
       </c>
       <c r="I23" s="7">
-        <v>54632</v>
+        <v>293277</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
-        <v>187</v>
+        <v>712</v>
       </c>
       <c r="N23" s="7">
-        <v>114090</v>
+        <v>598475</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="5">
+      <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>86</v>
+        <v>680</v>
       </c>
       <c r="D24" s="7">
-        <v>89610</v>
+        <v>672022</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="H24" s="7">
-        <v>151</v>
+        <v>1002</v>
       </c>
       <c r="I24" s="7">
-        <v>88184</v>
+        <v>712808</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1682</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1384830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5">
+        <v>5</v>
+      </c>
+      <c r="C25" s="7">
+        <v>58</v>
+      </c>
+      <c r="D25" s="7">
+        <v>46781</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="F25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="M24" s="7">
-        <v>237</v>
-      </c>
-      <c r="N24" s="7">
-        <v>177795</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P24" s="7" t="s">
+      <c r="H25" s="7">
+        <v>78</v>
+      </c>
+      <c r="I25" s="7">
+        <v>40141</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="Q24" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5">
-        <v>2</v>
-      </c>
-      <c r="C25" s="7">
-        <v>192</v>
-      </c>
-      <c r="D25" s="7">
-        <v>203814</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="L25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" s="7">
+        <v>136</v>
+      </c>
+      <c r="N25" s="7">
+        <v>86921</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="H25" s="7">
-        <v>333</v>
-      </c>
-      <c r="I25" s="7">
-        <v>237364</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M25" s="7">
-        <v>525</v>
-      </c>
-      <c r="N25" s="7">
-        <v>441179</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" s="7">
-        <v>1039</v>
+        <v>72</v>
       </c>
       <c r="D26" s="7">
-        <v>1100999</v>
+        <v>59458</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="H26" s="7">
-        <v>1489</v>
+        <v>115</v>
       </c>
       <c r="I26" s="7">
-        <v>1059808</v>
+        <v>54632</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="M26" s="7">
-        <v>2528</v>
+        <v>187</v>
       </c>
       <c r="N26" s="7">
-        <v>2160807</v>
+        <v>114090</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="5">
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1447</v>
+        <v>86</v>
       </c>
       <c r="D27" s="7">
-        <v>1500663</v>
+        <v>89610</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="H27" s="7">
-        <v>2166</v>
+        <v>151</v>
       </c>
       <c r="I27" s="7">
-        <v>1480129</v>
+        <v>88184</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="M27" s="7">
-        <v>3613</v>
+        <v>237</v>
       </c>
       <c r="N27" s="7">
-        <v>2980792</v>
+        <v>177795</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>180</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>192</v>
+      </c>
+      <c r="D28" s="7">
+        <v>203814</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>185</v>
+      </c>
+      <c r="H28" s="7">
+        <v>333</v>
+      </c>
+      <c r="I28" s="7">
+        <v>237364</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M28" s="7">
+        <v>525</v>
+      </c>
+      <c r="N28" s="7">
+        <v>441179</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1039</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1100999</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1489</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1059808</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M29" s="7">
+        <v>2528</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2160807</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1904</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1863501</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3169</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2304069</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M30" s="7">
+        <v>5073</v>
+      </c>
+      <c r="N30" s="7">
+        <v>4167569</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3351</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3364164</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5335</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3784198</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31" s="7">
+        <v>8686</v>
+      </c>
+      <c r="N31" s="7">
+        <v>7148361</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A25:A31"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A11:A17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
